--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H2">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>0.3485735967235417</v>
+        <v>0.7328766806199998</v>
       </c>
       <c r="R2">
-        <v>0.3485735967235417</v>
+        <v>6.595890125579999</v>
       </c>
       <c r="S2">
-        <v>3.520517668188964E-05</v>
+        <v>6.554658974757217E-05</v>
       </c>
       <c r="T2">
-        <v>3.520517668188964E-05</v>
+        <v>6.554658974757219E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H3">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>55.20544958303039</v>
+        <v>0.6146869840471111</v>
       </c>
       <c r="R3">
-        <v>55.20544958303039</v>
+        <v>5.532182856424</v>
       </c>
       <c r="S3">
-        <v>0.005575630583159645</v>
+        <v>5.497600978710814E-05</v>
       </c>
       <c r="T3">
-        <v>0.005575630583159645</v>
+        <v>5.497600978710815E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H4">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>1.441935369256268</v>
+        <v>105.2321709606082</v>
       </c>
       <c r="R4">
-        <v>1.441935369256268</v>
+        <v>947.0895386454738</v>
       </c>
       <c r="S4">
-        <v>0.0001456323425402583</v>
+        <v>0.009411692472417211</v>
       </c>
       <c r="T4">
-        <v>0.0001456323425402583</v>
+        <v>0.009411692472417211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>186.12331849021</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H5">
-        <v>186.12331849021</v>
+        <v>5.772046</v>
       </c>
       <c r="I5">
-        <v>0.9766002304952046</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J5">
-        <v>0.9766002304952046</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>59.13644423112542</v>
+        <v>3.864234723804</v>
       </c>
       <c r="R5">
-        <v>59.13644423112542</v>
+        <v>34.77811251423599</v>
       </c>
       <c r="S5">
-        <v>0.005972652510300927</v>
+        <v>0.0003456071325877463</v>
       </c>
       <c r="T5">
-        <v>0.005972652510300927</v>
+        <v>0.0003456071325877463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>9365.752372547951</v>
+        <v>71.69904799024998</v>
       </c>
       <c r="R6">
-        <v>9365.752372547951</v>
+        <v>645.2914319122499</v>
       </c>
       <c r="S6">
-        <v>0.9459206610415916</v>
+        <v>0.006412576915303962</v>
       </c>
       <c r="T6">
-        <v>0.9459206610415916</v>
+        <v>0.006412576915303963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>244.6281971739243</v>
+        <v>60.13627221825556</v>
       </c>
       <c r="R7">
-        <v>244.6281971739243</v>
+        <v>541.2264499643001</v>
       </c>
       <c r="S7">
-        <v>0.02470691694331218</v>
+        <v>0.005378432235971395</v>
       </c>
       <c r="T7">
-        <v>0.02470691694331218</v>
+        <v>0.005378432235971395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.36251180739028</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>3.36251180739028</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J8">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>1.068361522818514</v>
+        <v>10295.11059001068</v>
       </c>
       <c r="R8">
-        <v>1.068361522818514</v>
+        <v>92655.99531009616</v>
       </c>
       <c r="S8">
-        <v>0.0001079021949008631</v>
+        <v>0.9207679928885719</v>
       </c>
       <c r="T8">
-        <v>0.0001079021949008631</v>
+        <v>0.9207679928885719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.36251180739028</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>3.36251180739028</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J9">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>169.202081680284</v>
+        <v>378.04716432405</v>
       </c>
       <c r="R9">
-        <v>169.202081680284</v>
+        <v>3402.42447891645</v>
       </c>
       <c r="S9">
-        <v>0.01708904299261176</v>
+        <v>0.03381155798847134</v>
       </c>
       <c r="T9">
-        <v>0.01708904299261176</v>
+        <v>0.03381155798847133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.254943</v>
+      </c>
+      <c r="I10">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J10">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.14273</v>
+      </c>
+      <c r="O10">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P10">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q10">
+        <v>0.03237011270999999</v>
+      </c>
+      <c r="R10">
+        <v>0.2913310143899999</v>
+      </c>
+      <c r="S10">
+        <v>2.895098935458119E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.895098935458119E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.254943</v>
+      </c>
+      <c r="I11">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J11">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P11">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q11">
+        <v>0.027149843188</v>
+      </c>
+      <c r="R11">
+        <v>0.244348588692</v>
+      </c>
+      <c r="S11">
+        <v>2.428211567121036E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.428211567121037E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.254943</v>
+      </c>
+      <c r="I12">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J12">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N12">
+        <v>164.082119</v>
+      </c>
+      <c r="O12">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P12">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q12">
+        <v>4.647954184912999</v>
+      </c>
+      <c r="R12">
+        <v>41.83158766421699</v>
+      </c>
+      <c r="S12">
+        <v>0.0004157009687718117</v>
+      </c>
+      <c r="T12">
+        <v>0.0004157009687718118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.254943</v>
+      </c>
+      <c r="I13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.008422</v>
+      </c>
+      <c r="N13">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P13">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q13">
+        <v>0.170677709982</v>
+      </c>
+      <c r="R13">
+        <v>1.536099389838</v>
+      </c>
+      <c r="S13">
+        <v>1.526497176275411E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.526497176275411E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.624172</v>
+      </c>
+      <c r="I14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>1.729861118839999</v>
+      </c>
+      <c r="R14">
+        <v>15.56875006956</v>
+      </c>
+      <c r="S14">
+        <v>0.0001547142924249668</v>
+      </c>
+      <c r="T14">
+        <v>0.0001547142924249669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.624172</v>
+      </c>
+      <c r="I15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>1.450889545374222</v>
+      </c>
+      <c r="R15">
+        <v>13.058005908368</v>
+      </c>
+      <c r="S15">
+        <v>0.0001297637983504021</v>
+      </c>
+      <c r="T15">
+        <v>0.0001297637983504021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="H10">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="I10">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="J10">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="N10">
-        <v>1.31433395427447</v>
-      </c>
-      <c r="O10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="P10">
-        <v>0.02529890550075341</v>
-      </c>
-      <c r="Q10">
-        <v>4.419463440101862</v>
-      </c>
-      <c r="R10">
-        <v>4.419463440101862</v>
-      </c>
-      <c r="S10">
-        <v>0.0004463562149009718</v>
-      </c>
-      <c r="T10">
-        <v>0.0004463562149009718</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.624172</v>
+      </c>
+      <c r="I16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>248.3870012644964</v>
+      </c>
+      <c r="R16">
+        <v>2235.483011380468</v>
+      </c>
+      <c r="S16">
+        <v>0.02221508925176919</v>
+      </c>
+      <c r="T16">
+        <v>0.02221508925176919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H17">
+        <v>13.624172</v>
+      </c>
+      <c r="I17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>9.121028925528</v>
+      </c>
+      <c r="R17">
+        <v>82.08926032975199</v>
+      </c>
+      <c r="S17">
+        <v>0.0008157611735599926</v>
+      </c>
+      <c r="T17">
+        <v>0.0008157611735599926</v>
       </c>
     </row>
   </sheetData>
